--- a/BackTest/2019-10-30 BackTest FNB.xlsx
+++ b/BackTest/2019-10-30 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>16136.75169999998</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-27754.24330000002</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>16</v>
+      </c>
+      <c r="J3" t="n">
+        <v>16</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-27696.74330000002</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>16</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-27696.74330000002</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>16</v>
+      </c>
+      <c r="J5" t="n">
+        <v>16</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>-27696.74330000002</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>16</v>
+      </c>
+      <c r="J6" t="n">
+        <v>16</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>-27696.74330000002</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>16</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>-27696.74330000002</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>16</v>
+      </c>
+      <c r="J8" t="n">
+        <v>16</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +722,19 @@
         <v>-27696.74330000002</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>16</v>
+      </c>
+      <c r="J9" t="n">
+        <v>16</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +763,19 @@
         <v>-27696.74330000002</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>16</v>
+      </c>
+      <c r="J10" t="n">
+        <v>16</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +804,19 @@
         <v>177306.6951</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>16</v>
+      </c>
+      <c r="J11" t="n">
+        <v>16</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -784,8 +848,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>16</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -817,8 +887,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>16</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +926,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>16</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +965,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>16</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +1004,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>16</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1040,19 @@
         <v>157307.1558</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>16</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1084,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>16</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1123,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>16</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1162,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>16</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1201,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>16</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1240,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>16</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1279,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>16</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1318,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>16</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1357,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>16</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1396,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>16</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,15 +1432,17 @@
         <v>219421.7288</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>16.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,17 +1471,15 @@
         <v>219815.7411</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>16.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -1354,17 +1510,15 @@
         <v>218350.2288</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>16.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -1395,17 +1549,15 @@
         <v>281827.462</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>16.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -1436,13 +1588,11 @@
         <v>281827.462</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>16.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1477,13 +1627,11 @@
         <v>281827.462</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>16.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1518,13 +1666,11 @@
         <v>281827.462</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>16.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1559,13 +1705,11 @@
         <v>255275.719</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>16.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1600,13 +1744,11 @@
         <v>266888.1102</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1641,13 +1783,11 @@
         <v>266888.1102</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>16.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1682,13 +1822,11 @@
         <v>266888.1102</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>16.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1723,13 +1861,11 @@
         <v>266888.1102</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>16.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1764,13 +1900,11 @@
         <v>266888.1102</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>16.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1805,13 +1939,11 @@
         <v>266888.1102</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>16.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1846,13 +1978,11 @@
         <v>271844.3155</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>16.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -1887,13 +2017,11 @@
         <v>171781.8882</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>16.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -1928,13 +2056,11 @@
         <v>171868.4931</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -1969,13 +2095,11 @@
         <v>171858.4931</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>16.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2010,13 +2134,11 @@
         <v>171868.5056</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2051,13 +2173,11 @@
         <v>171868.5056</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>16.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2092,13 +2212,11 @@
         <v>171868.5056</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>16.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2133,13 +2251,11 @@
         <v>171868.5056</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>16.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2174,13 +2290,11 @@
         <v>171868.5056</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>16.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2215,13 +2329,11 @@
         <v>171868.5056</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>16.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2256,13 +2368,11 @@
         <v>171858.5056</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>16.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2297,13 +2407,11 @@
         <v>171858.5056</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2338,13 +2446,11 @@
         <v>171858.5056</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2379,13 +2485,11 @@
         <v>171858.5056</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2420,13 +2524,11 @@
         <v>131792.8958</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2461,13 +2563,11 @@
         <v>136886.01</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>15.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2502,13 +2602,11 @@
         <v>136928.1222</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2543,13 +2641,11 @@
         <v>89345.70440000002</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>16.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2584,13 +2680,11 @@
         <v>112874.4757</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2625,13 +2719,11 @@
         <v>112874.4757</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>16.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2666,13 +2758,11 @@
         <v>308578.9221</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>16.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2707,13 +2797,11 @@
         <v>306042.9221</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>16.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2748,13 +2836,11 @@
         <v>309338.8491</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>16.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2789,13 +2875,11 @@
         <v>309338.8491</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>16.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2830,13 +2914,11 @@
         <v>309338.8491</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>16.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2871,13 +2953,11 @@
         <v>309338.8491</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>16.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2916,7 +2996,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2955,7 +3035,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2994,7 +3074,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3033,7 +3113,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3072,7 +3152,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3111,7 +3191,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3150,7 +3230,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3189,7 +3269,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3228,7 +3308,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3267,7 +3347,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3306,7 +3386,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3345,7 +3425,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3384,7 +3464,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3423,7 +3503,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3462,7 +3542,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3497,13 +3577,11 @@
         <v>444628.4894000001</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>16.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3538,13 +3616,11 @@
         <v>419104.2659000001</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>16.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3583,7 +3659,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3618,13 +3694,11 @@
         <v>419675.2226</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="n">
-        <v>16.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3663,7 +3737,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3702,7 +3776,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3741,7 +3815,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3780,7 +3854,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3819,7 +3893,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3858,7 +3932,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3897,7 +3971,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3936,7 +4010,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3975,7 +4049,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4014,7 +4088,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4053,7 +4127,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4092,7 +4166,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4131,7 +4205,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4170,7 +4244,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4209,7 +4283,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4248,7 +4322,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4287,7 +4361,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4326,7 +4400,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4365,7 +4439,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4404,7 +4478,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4443,7 +4517,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4482,7 +4556,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4521,7 +4595,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4556,13 +4630,11 @@
         <v>318101.4266</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="n">
-        <v>16.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4601,7 +4673,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4640,7 +4712,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4679,7 +4751,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4718,7 +4790,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4757,7 +4829,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4796,7 +4868,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4835,7 +4907,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4874,7 +4946,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4913,7 +4985,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4952,7 +5024,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4991,7 +5063,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5030,7 +5102,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5069,7 +5141,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5108,7 +5180,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5147,7 +5219,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5186,7 +5258,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5225,7 +5297,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5264,7 +5336,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5303,7 +5375,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5342,7 +5414,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5381,7 +5453,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5420,7 +5492,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5459,7 +5531,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5498,7 +5570,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5537,7 +5609,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5576,7 +5648,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5615,7 +5687,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5654,7 +5726,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5693,7 +5765,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5732,7 +5804,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5771,7 +5843,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5810,7 +5882,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5849,7 +5921,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5888,7 +5960,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5927,7 +5999,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5966,7 +6038,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6005,7 +6077,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6044,7 +6116,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6083,7 +6155,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6122,7 +6194,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6161,7 +6233,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6200,7 +6272,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6239,7 +6311,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6278,7 +6350,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6317,7 +6389,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6356,7 +6428,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6395,7 +6467,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6434,7 +6506,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6473,7 +6545,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6512,7 +6584,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6551,7 +6623,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6590,7 +6662,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6629,7 +6701,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6668,7 +6740,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6707,7 +6779,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6746,7 +6818,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6785,7 +6857,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6824,7 +6896,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6863,7 +6935,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6902,7 +6974,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6941,7 +7013,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6980,7 +7052,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -7019,7 +7091,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -7058,7 +7130,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7097,7 +7169,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7136,7 +7208,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7175,7 +7247,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7214,7 +7286,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7253,7 +7325,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7292,7 +7364,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7331,7 +7403,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7370,7 +7442,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7409,7 +7481,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7448,7 +7520,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7487,7 +7559,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7526,7 +7598,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7565,7 +7637,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7604,7 +7676,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7643,7 +7715,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7682,7 +7754,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7721,7 +7793,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7760,7 +7832,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7799,7 +7871,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7838,7 +7910,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7877,7 +7949,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7916,7 +7988,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7955,7 +8027,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7994,7 +8066,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -8033,7 +8105,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -8072,7 +8144,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8111,7 +8183,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8150,7 +8222,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8189,7 +8261,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8228,7 +8300,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8267,7 +8339,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8306,7 +8378,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8345,7 +8417,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8384,7 +8456,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8423,7 +8495,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8462,7 +8534,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8501,7 +8573,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8540,7 +8612,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8579,7 +8651,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8618,7 +8690,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8657,7 +8729,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8696,7 +8768,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8735,7 +8807,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8774,7 +8846,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8813,7 +8885,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8852,7 +8924,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8891,7 +8963,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8930,7 +9002,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8969,7 +9041,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -9008,7 +9080,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -9047,7 +9119,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -9086,7 +9158,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -9125,7 +9197,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -9164,7 +9236,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -9203,7 +9275,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -9242,7 +9314,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -9281,7 +9353,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -9320,7 +9392,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -9359,7 +9431,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9398,7 +9470,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9437,7 +9509,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9476,7 +9548,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9515,7 +9587,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9554,7 +9626,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9593,7 +9665,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9632,7 +9704,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9671,7 +9743,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9710,7 +9782,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9749,7 +9821,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9788,7 +9860,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9827,7 +9899,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -9866,7 +9938,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -9905,7 +9977,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -9944,7 +10016,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -9983,7 +10055,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -10022,7 +10094,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -10061,7 +10133,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -10100,7 +10172,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -10139,7 +10211,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -10178,7 +10250,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -10217,7 +10289,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -10256,7 +10328,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -10295,7 +10367,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -10334,7 +10406,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -10373,7 +10445,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -10412,7 +10484,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -10451,7 +10523,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -10490,7 +10562,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -10529,7 +10601,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -10568,7 +10640,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -10607,7 +10679,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -10646,7 +10718,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -10685,7 +10757,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -10724,7 +10796,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -10763,7 +10835,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -10802,7 +10874,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -10841,7 +10913,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -10880,7 +10952,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -10919,7 +10991,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -10958,7 +11030,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -10997,7 +11069,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -11036,7 +11108,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -11075,7 +11147,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -11114,7 +11186,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -11149,419 +11221,491 @@
         <v>3592786.932521658</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="C279" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="D279" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="E279" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="F279" t="n">
+        <v>708829.9449</v>
+      </c>
+      <c r="G279" t="n">
+        <v>4301616.877421658</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>16</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C280" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D280" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E280" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F280" t="n">
+        <v>461253.3329</v>
+      </c>
+      <c r="G280" t="n">
+        <v>3840363.544521658</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>16</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C281" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="D281" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="E281" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F281" t="n">
+        <v>255651.089</v>
+      </c>
+      <c r="G281" t="n">
+        <v>4096014.633521658</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>16</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C282" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="D282" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="E282" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="F282" t="n">
+        <v>579239.9092</v>
+      </c>
+      <c r="G282" t="n">
+        <v>4675254.542721658</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>16</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="C283" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="D283" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="E283" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="F283" t="n">
+        <v>644362.4515</v>
+      </c>
+      <c r="G283" t="n">
+        <v>4675254.542721658</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>16</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="C284" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D284" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="E284" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F284" t="n">
+        <v>1496223.6674</v>
+      </c>
+      <c r="G284" t="n">
+        <v>3179030.875321658</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>16</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C285" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D285" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="E285" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F285" t="n">
+        <v>316525.6477</v>
+      </c>
+      <c r="G285" t="n">
+        <v>3179030.875321658</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>16</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="C286" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D286" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E286" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="F286" t="n">
+        <v>142187.4306040462</v>
+      </c>
+      <c r="G286" t="n">
+        <v>3179030.875321658</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>16</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C287" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="D287" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E287" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F287" t="n">
+        <v>45000</v>
+      </c>
+      <c r="G287" t="n">
+        <v>3179030.875321658</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>16</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C288" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="D288" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="E288" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F288" t="n">
+        <v>609887.1616</v>
+      </c>
+      <c r="G288" t="n">
+        <v>3788918.036921659</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>16</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="C289" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="D289" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="E289" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F289" t="n">
+        <v>385913.5556</v>
+      </c>
+      <c r="G289" t="n">
+        <v>4174831.592521659</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>16</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="C290" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="D290" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="E290" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="F290" t="n">
+        <v>24589.9431</v>
+      </c>
+      <c r="G290" t="n">
+        <v>4174831.592521659</v>
+      </c>
+      <c r="H290" t="n">
+        <v>2</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>16</v>
+      </c>
+      <c r="K290" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L278" t="n">
-        <v>1.057111801242236</v>
-      </c>
-      <c r="M278" t="n">
-        <v>1.018867924528302</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="C279" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="D279" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="E279" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="F279" t="n">
-        <v>708829.9449</v>
-      </c>
-      <c r="G279" t="n">
-        <v>4301616.877421658</v>
-      </c>
-      <c r="H279" t="n">
-        <v>3</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="C280" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D280" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="E280" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F280" t="n">
-        <v>461253.3329</v>
-      </c>
-      <c r="G280" t="n">
-        <v>3840363.544521658</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C281" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="D281" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="E281" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F281" t="n">
-        <v>255651.089</v>
-      </c>
-      <c r="G281" t="n">
-        <v>4096014.633521658</v>
-      </c>
-      <c r="H281" t="n">
-        <v>3</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="C282" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="D282" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="E282" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="F282" t="n">
-        <v>579239.9092</v>
-      </c>
-      <c r="G282" t="n">
-        <v>4675254.542721658</v>
-      </c>
-      <c r="H282" t="n">
-        <v>3</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="C283" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="D283" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="E283" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="F283" t="n">
-        <v>644362.4515</v>
-      </c>
-      <c r="G283" t="n">
-        <v>4675254.542721658</v>
-      </c>
-      <c r="H283" t="n">
-        <v>3</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="C284" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D284" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="E284" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F284" t="n">
-        <v>1496223.6674</v>
-      </c>
-      <c r="G284" t="n">
-        <v>3179030.875321658</v>
-      </c>
-      <c r="H284" t="n">
-        <v>3</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C285" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D285" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="E285" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F285" t="n">
-        <v>316525.6477</v>
-      </c>
-      <c r="G285" t="n">
-        <v>3179030.875321658</v>
-      </c>
-      <c r="H285" t="n">
-        <v>3</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="C286" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D286" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E286" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="F286" t="n">
-        <v>142187.4306040462</v>
-      </c>
-      <c r="G286" t="n">
-        <v>3179030.875321658</v>
-      </c>
-      <c r="H286" t="n">
-        <v>3</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C287" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="D287" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="E287" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F287" t="n">
-        <v>45000</v>
-      </c>
-      <c r="G287" t="n">
-        <v>3179030.875321658</v>
-      </c>
-      <c r="H287" t="n">
-        <v>3</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="C288" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="D288" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="E288" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F288" t="n">
-        <v>609887.1616</v>
-      </c>
-      <c r="G288" t="n">
-        <v>3788918.036921659</v>
-      </c>
-      <c r="H288" t="n">
-        <v>3</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="C289" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="D289" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="E289" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="F289" t="n">
-        <v>385913.5556</v>
-      </c>
-      <c r="G289" t="n">
-        <v>4174831.592521659</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="C290" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="D290" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="E290" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="F290" t="n">
-        <v>24589.9431</v>
-      </c>
-      <c r="G290" t="n">
-        <v>4174831.592521659</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+        <v>1.095</v>
+      </c>
+      <c r="M290" t="n">
+        <v>1.006289308176101</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11586,7 +11730,7 @@
         <v>3976108.062821659</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11619,7 +11763,7 @@
         <v>4258200.696521658</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11652,7 +11796,7 @@
         <v>4258200.696521658</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11685,7 +11829,7 @@
         <v>4258200.696521658</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11718,7 +11862,7 @@
         <v>4015836.488621659</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11751,7 +11895,7 @@
         <v>4234091.108721659</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11784,7 +11928,7 @@
         <v>4234091.108721659</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11817,7 +11961,7 @@
         <v>3593198.726821659</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11850,7 +11994,7 @@
         <v>3534537.008221659</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11883,7 +12027,7 @@
         <v>3602794.496821659</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11916,7 +12060,7 @@
         <v>3602794.496821659</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11949,7 +12093,7 @@
         <v>3602794.496821659</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11982,7 +12126,7 @@
         <v>3602794.496821659</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -12015,7 +12159,7 @@
         <v>3602794.496821659</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -12048,7 +12192,7 @@
         <v>3602794.496821659</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -12081,7 +12225,7 @@
         <v>3259388.997721659</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -12114,7 +12258,7 @@
         <v>3742461.785921658</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -12147,7 +12291,7 @@
         <v>3735785.917421659</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12180,7 +12324,7 @@
         <v>3854179.330121659</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -12213,7 +12357,7 @@
         <v>3854179.330121659</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12246,7 +12390,7 @@
         <v>3854179.330121659</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12279,7 +12423,7 @@
         <v>3854179.330121659</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12510,7 +12654,7 @@
         <v>2718540.418921659</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12543,7 +12687,7 @@
         <v>2690153.087421659</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12576,7 +12720,7 @@
         <v>2690153.087421659</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12609,7 +12753,7 @@
         <v>2737442.469621659</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12642,7 +12786,7 @@
         <v>2737442.469621659</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12675,7 +12819,7 @@
         <v>2737442.469621659</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12708,7 +12852,7 @@
         <v>2744444.969621659</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12741,7 +12885,7 @@
         <v>2744444.969621659</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12774,7 +12918,7 @@
         <v>2899288.924321659</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12807,7 +12951,7 @@
         <v>2899288.924321659</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12840,7 +12984,7 @@
         <v>2689865.018921659</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12873,7 +13017,7 @@
         <v>2689865.018921659</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12906,7 +13050,7 @@
         <v>2507599.505721659</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12939,7 +13083,7 @@
         <v>2507599.505721659</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12972,7 +13116,7 @@
         <v>2789815.755121659</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -13005,7 +13149,7 @@
         <v>2605917.429621659</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -13038,7 +13182,7 @@
         <v>3456373.801921659</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -13071,7 +13215,7 @@
         <v>3709061.065221659</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -13104,7 +13248,7 @@
         <v>3709061.065221659</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13137,7 +13281,7 @@
         <v>3709061.065221659</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13170,7 +13314,7 @@
         <v>3477622.721921659</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13203,7 +13347,7 @@
         <v>3477641.809121659</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13236,7 +13380,7 @@
         <v>3477641.809121659</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13269,7 +13413,7 @@
         <v>3498425.855321659</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13302,7 +13446,7 @@
         <v>3453249.626321659</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13335,7 +13479,7 @@
         <v>3453249.626321659</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13368,7 +13512,7 @@
         <v>3453249.626321659</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13401,7 +13545,7 @@
         <v>2536343.900221659</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13434,7 +13578,7 @@
         <v>1341394.785446365</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13467,7 +13611,7 @@
         <v>1341394.785446365</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13500,7 +13644,7 @@
         <v>1341394.785446365</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13533,7 +13677,7 @@
         <v>1341394.785446365</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13566,7 +13710,7 @@
         <v>1341394.785446365</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13599,7 +13743,7 @@
         <v>556723.3261463654</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13632,7 +13776,7 @@
         <v>1028611.687046365</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13665,7 +13809,7 @@
         <v>1028611.687046365</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13698,7 +13842,7 @@
         <v>1028611.687046365</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13764,7 +13908,7 @@
         <v>1028611.687046365</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13797,7 +13941,7 @@
         <v>1028611.687046365</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -21288,7 +21432,7 @@
         <v>-1105196.268908942</v>
       </c>
       <c r="H585" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -21387,7 +21531,7 @@
         <v>-278257.3499089421</v>
       </c>
       <c r="H588" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -21420,7 +21564,7 @@
         <v>-278257.3499089421</v>
       </c>
       <c r="H589" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21453,7 +21597,7 @@
         <v>-980754.5769089421</v>
       </c>
       <c r="H590" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21486,7 +21630,7 @@
         <v>-980754.5769089421</v>
       </c>
       <c r="H591" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21519,7 +21663,7 @@
         <v>-780099.906708942</v>
       </c>
       <c r="H592" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -22905,7 +23049,7 @@
         <v>-2115015.682823971</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -23664,7 +23808,7 @@
         <v>-2650963.647403162</v>
       </c>
       <c r="H657" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -23697,7 +23841,7 @@
         <v>-2675942.991203162</v>
       </c>
       <c r="H658" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23730,7 +23874,7 @@
         <v>-2537927.275003162</v>
       </c>
       <c r="H659" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -23829,7 +23973,7 @@
         <v>-1564849.690203162</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -24093,7 +24237,7 @@
         <v>-1848876.676503162</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -24126,7 +24270,7 @@
         <v>-1848876.676503162</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -24159,7 +24303,7 @@
         <v>-1612178.620103162</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -24192,7 +24336,7 @@
         <v>-1612178.620103162</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -24225,7 +24369,7 @@
         <v>-1953748.485803162</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -24258,7 +24402,7 @@
         <v>-2483288.853903162</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -24291,7 +24435,7 @@
         <v>-2483288.853903162</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -24324,7 +24468,7 @@
         <v>-2361999.228903162</v>
       </c>
       <c r="H677" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -24357,7 +24501,7 @@
         <v>-2434383.553203162</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -24390,7 +24534,7 @@
         <v>-2291695.916303162</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -24423,7 +24567,7 @@
         <v>-2373918.731003162</v>
       </c>
       <c r="H680" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24456,7 +24600,7 @@
         <v>-2373918.731003162</v>
       </c>
       <c r="H681" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -24489,7 +24633,7 @@
         <v>-2373918.731003162</v>
       </c>
       <c r="H682" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -24522,7 +24666,7 @@
         <v>-2988979.019703162</v>
       </c>
       <c r="H683" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -24555,7 +24699,7 @@
         <v>-4091401.113103162</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -25281,7 +25425,7 @@
         <v>-4869809.594203161</v>
       </c>
       <c r="H706" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -26205,7 +26349,7 @@
         <v>-2463639.294642709</v>
       </c>
       <c r="H734" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -26238,7 +26382,7 @@
         <v>-2628311.335542709</v>
       </c>
       <c r="H735" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -26271,7 +26415,7 @@
         <v>-2628311.335542709</v>
       </c>
       <c r="H736" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -26304,7 +26448,7 @@
         <v>-2150437.56619634</v>
       </c>
       <c r="H737" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -26337,7 +26481,7 @@
         <v>-1654913.41179634</v>
       </c>
       <c r="H738" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -26370,7 +26514,7 @@
         <v>-1076066.10089634</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26403,7 +26547,7 @@
         <v>-2212634.39199634</v>
       </c>
       <c r="H740" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26436,7 +26580,7 @@
         <v>-2839108.27969634</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26469,7 +26613,7 @@
         <v>-2450668.47229634</v>
       </c>
       <c r="H742" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26502,7 +26646,7 @@
         <v>-3332514.72639634</v>
       </c>
       <c r="H743" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -26535,7 +26679,7 @@
         <v>-3639926.52579634</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -26568,7 +26712,7 @@
         <v>-3162674.56589634</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26601,7 +26745,7 @@
         <v>-3163688.71609634</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26634,7 +26778,7 @@
         <v>-3118107.28419634</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26667,7 +26811,7 @@
         <v>-3379474.10189634</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -26700,7 +26844,7 @@
         <v>-3379474.10189634</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -26733,7 +26877,7 @@
         <v>-3379474.10189634</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -26766,7 +26910,7 @@
         <v>-3379474.10189634</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -26799,7 +26943,7 @@
         <v>-3442546.06309634</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -26832,7 +26976,7 @@
         <v>-3273455.52359634</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -26865,7 +27009,7 @@
         <v>-3401663.50809634</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -26898,7 +27042,7 @@
         <v>-3401663.50809634</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -26931,7 +27075,7 @@
         <v>-3401663.50809634</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -26964,7 +27108,7 @@
         <v>-3404083.41809634</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -26997,7 +27141,7 @@
         <v>-3582959.05679634</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -27030,7 +27174,7 @@
         <v>-3125002.35469634</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -27063,7 +27207,7 @@
         <v>-3125002.35469634</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -27096,7 +27240,7 @@
         <v>-3372979.08759634</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -27129,7 +27273,7 @@
         <v>-3372979.08759634</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -27162,7 +27306,7 @@
         <v>-3945734.123982054</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -27195,7 +27339,7 @@
         <v>-3849777.818982054</v>
       </c>
       <c r="H764" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -27228,7 +27372,7 @@
         <v>-3849777.818982054</v>
       </c>
       <c r="H765" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -27261,7 +27405,7 @@
         <v>-3849767.818982054</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -27294,7 +27438,7 @@
         <v>-6076550.442567768</v>
       </c>
       <c r="H767" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -27327,7 +27471,7 @@
         <v>-5523074.864967767</v>
       </c>
       <c r="H768" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -27360,7 +27504,7 @@
         <v>-5523062.446967768</v>
       </c>
       <c r="H769" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -27393,7 +27537,7 @@
         <v>-5523062.446967768</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -27426,7 +27570,7 @@
         <v>-5557656.843467767</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -27459,7 +27603,7 @@
         <v>-5557656.843467767</v>
       </c>
       <c r="H772" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -27492,7 +27636,7 @@
         <v>-5522012.814367767</v>
       </c>
       <c r="H773" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -27525,7 +27669,7 @@
         <v>-5571012.814367767</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -27558,7 +27702,7 @@
         <v>-5571012.814367767</v>
       </c>
       <c r="H775" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -27591,7 +27735,7 @@
         <v>-5570866.071567767</v>
       </c>
       <c r="H776" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -27624,7 +27768,7 @@
         <v>-5570866.071567767</v>
       </c>
       <c r="H777" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -27657,7 +27801,7 @@
         <v>-5891269.381067768</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -27690,7 +27834,7 @@
         <v>-6045990.683367767</v>
       </c>
       <c r="H779" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -27723,7 +27867,7 @@
         <v>-5693303.898367767</v>
       </c>
       <c r="H780" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -27756,7 +27900,7 @@
         <v>-6582371.450467767</v>
       </c>
       <c r="H781" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -27822,7 +27966,7 @@
         <v>-6842082.375667768</v>
       </c>
       <c r="H783" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -27855,7 +27999,7 @@
         <v>-6842082.375667768</v>
       </c>
       <c r="H784" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -27888,7 +28032,7 @@
         <v>-6874982.560267768</v>
       </c>
       <c r="H785" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -27954,7 +28098,7 @@
         <v>-6792512.312367768</v>
       </c>
       <c r="H787" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -27987,7 +28131,7 @@
         <v>-6769353.692967768</v>
       </c>
       <c r="H788" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -32585,6 +32729,6 @@
       <c r="M927" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest FNB.xlsx
+++ b/BackTest/2019-10-30 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>16136.75169999998</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-27754.24330000002</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>16</v>
-      </c>
-      <c r="J3" t="n">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-27696.74330000002</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="J4" t="n">
-        <v>16</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-27696.74330000002</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>16</v>
-      </c>
-      <c r="J5" t="n">
-        <v>16</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>-27696.74330000002</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>16</v>
-      </c>
-      <c r="J6" t="n">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>-27696.74330000002</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>16</v>
-      </c>
-      <c r="J7" t="n">
-        <v>16</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,19 +649,11 @@
         <v>-27696.74330000002</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>16</v>
-      </c>
-      <c r="J8" t="n">
-        <v>16</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -722,19 +682,11 @@
         <v>-27696.74330000002</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>16</v>
-      </c>
-      <c r="J9" t="n">
-        <v>16</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -763,19 +715,11 @@
         <v>-27696.74330000002</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>16</v>
-      </c>
-      <c r="J10" t="n">
-        <v>16</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -804,19 +748,11 @@
         <v>177306.6951</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>16</v>
-      </c>
-      <c r="J11" t="n">
-        <v>16</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -848,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>16</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -887,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>16</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -926,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>16</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -965,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>16</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1004,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>16</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1040,19 +946,11 @@
         <v>157307.1558</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>16</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1084,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>16</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1123,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>16</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1162,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>16</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1201,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>16</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1240,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>16</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1279,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>16</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1318,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>16</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1357,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>16</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1396,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>16</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1435,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>16</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1474,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>16</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1513,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>16</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1552,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>16</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1591,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>16</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1630,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>16</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1669,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>16</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1708,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>16</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1747,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>16</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1786,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>16</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1825,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>16</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1864,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>16</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1903,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>16</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1942,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>16</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1981,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>16</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2020,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>16</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2059,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>16</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2098,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>16</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2137,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>16</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2176,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>16</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2215,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>16</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2254,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>16</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2293,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>16</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2332,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>16</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2371,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>16</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2410,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>16</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2449,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>16</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2488,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>16</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2527,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>16</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2566,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>16</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2605,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>16</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2644,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>16</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2683,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>16</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2722,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>16</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2761,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>16</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2800,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>16</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2839,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>16</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2878,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>16</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2917,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>16</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2956,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>16</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2995,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>16</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3034,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>16</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3073,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>16</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3112,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>16</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3151,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>16</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3190,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>16</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3229,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>16</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3268,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>16</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3307,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>16</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3346,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>16</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3385,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>16</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3424,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>16</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3463,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>16</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3502,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>16</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3541,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>16</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3580,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>16</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3619,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>16</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3658,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>16</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3697,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>16</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3736,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>16</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3775,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>16</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3814,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>16</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3853,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>16</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3892,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>16</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3931,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>16</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3970,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>16</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4009,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>16</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4048,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>16</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4087,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>16</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4126,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>16</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4165,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>16</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4204,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>16</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4243,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>16</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4282,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>16</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4321,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>16</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4360,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>16</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4399,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>16</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4438,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>16</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4477,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>16</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4516,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>16</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4555,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>16</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4594,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>16</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4633,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>16</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4672,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>16</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4711,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>16</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4750,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>16</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4789,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>16</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4828,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>16</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4867,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>16</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4906,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>16</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4945,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>16</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4984,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>16</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5023,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>16</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5062,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>16</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5101,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>16</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5140,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>16</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5179,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>16</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5218,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>16</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5257,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>16</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5296,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>16</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5335,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>16</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5374,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>16</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5413,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>16</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5452,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>16</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5491,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>16</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5530,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>16</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5569,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>16</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5608,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>16</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5647,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>16</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5686,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>16</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5725,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>16</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5764,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>16</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5803,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>16</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5842,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>16</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5881,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>16</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5920,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>16</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5959,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>16</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5998,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>16</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6037,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>16</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6076,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>16</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6115,14 +5239,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>16</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6154,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>16</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6193,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>16</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6232,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>16</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6271,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>16</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6310,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>16</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6349,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>16</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6388,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>16</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6427,14 +5503,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>16</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6466,14 +5536,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>16</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6505,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>16</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6544,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>16</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6583,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>16</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6622,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>16</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6661,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>16</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6700,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>16</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6739,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>16</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6778,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>16</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6817,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>16</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6856,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>16</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6895,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>16</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6934,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>16</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6973,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>16</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7012,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>16</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7051,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>16</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7090,14 +6064,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>16</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7129,14 +6097,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>16</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7168,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>16</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7207,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>16</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7246,14 +6196,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>16</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7285,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>16</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7324,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>16</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7363,14 +6295,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>16</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7402,14 +6328,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>16</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7441,14 +6361,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>16</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7480,14 +6394,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>16</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7519,14 +6427,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>16</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7558,14 +6460,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>16</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7597,14 +6493,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>16</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7636,14 +6526,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>16</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7675,14 +6559,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>16</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7714,14 +6592,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>16</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7753,14 +6625,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>16</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7792,14 +6658,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>16</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7831,14 +6691,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>16</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7870,14 +6724,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>16</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7909,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>16</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7948,14 +6790,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>16</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7987,14 +6823,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>16</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8026,14 +6856,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>16</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8065,14 +6889,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>16</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8104,14 +6922,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>16</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8143,14 +6955,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>16</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8182,14 +6988,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>16</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8221,14 +7021,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>16</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8260,14 +7054,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>16</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8299,14 +7087,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>16</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8338,14 +7120,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>16</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8377,14 +7153,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>16</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8416,14 +7186,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>16</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8455,14 +7219,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>16</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8494,14 +7252,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>16</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8533,14 +7285,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>16</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8572,14 +7318,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>16</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8611,14 +7351,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>16</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8650,14 +7384,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>16</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8689,14 +7417,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>16</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8728,14 +7450,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>16</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8767,14 +7483,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>16</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8806,14 +7516,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>16</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8845,14 +7549,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>16</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8884,14 +7582,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>16</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8923,14 +7615,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>16</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8962,14 +7648,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>16</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9001,14 +7681,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>16</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9040,14 +7714,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>16</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9079,14 +7747,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>16</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9118,14 +7780,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>16</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9157,14 +7813,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>16</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9196,14 +7846,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>16</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9235,14 +7879,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>16</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9274,14 +7912,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>16</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9313,14 +7945,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>16</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9352,14 +7978,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>16</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9391,14 +8011,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>16</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9430,14 +8044,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>16</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9469,14 +8077,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>16</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9508,14 +8110,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>16</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9547,14 +8143,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>16</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9586,14 +8176,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>16</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9625,14 +8209,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>16</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9664,14 +8242,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>16</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9703,14 +8275,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>16</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9742,14 +8308,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>16</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9781,14 +8341,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>16</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9820,14 +8374,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>16</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9859,14 +8407,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>16</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9898,14 +8440,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>16</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9937,14 +8473,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>16</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9976,14 +8506,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>16</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10015,14 +8539,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>16</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10054,14 +8572,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>16</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10093,14 +8605,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>16</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10132,14 +8638,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>16</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10171,14 +8671,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>16</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10210,14 +8704,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>16</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10249,14 +8737,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>16</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10288,14 +8770,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>16</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10327,14 +8803,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>16</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10366,14 +8836,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>16</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10405,14 +8869,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>16</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10444,14 +8902,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>16</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10483,14 +8935,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>16</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10522,14 +8968,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>16</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10561,14 +9001,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>16</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10600,14 +9034,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>16</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10639,14 +9067,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>16</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10678,14 +9100,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>16</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10717,14 +9133,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>16</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10756,14 +9166,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>16</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10795,14 +9199,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>16</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10834,14 +9232,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>16</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10873,14 +9265,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>16</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10912,14 +9298,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>16</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10951,14 +9331,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>16</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10990,14 +9364,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>16</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11029,14 +9397,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>16</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11068,14 +9430,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>16</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11107,14 +9463,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>16</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11146,14 +9496,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>16</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11185,14 +9529,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>16</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11224,14 +9562,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>16</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11263,14 +9595,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>16</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11299,17 +9625,11 @@
         <v>3840363.544521658</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>16</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11338,17 +9658,11 @@
         <v>4096014.633521658</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>16</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11377,17 +9691,11 @@
         <v>4675254.542721658</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>16</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11416,17 +9724,11 @@
         <v>4675254.542721658</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>16</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11455,17 +9757,11 @@
         <v>3179030.875321658</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>16</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11494,17 +9790,11 @@
         <v>3179030.875321658</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>16</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11533,17 +9823,11 @@
         <v>3179030.875321658</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>16</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11572,17 +9856,11 @@
         <v>3179030.875321658</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>16</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11611,17 +9889,11 @@
         <v>3788918.036921659</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>16</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11650,17 +9922,11 @@
         <v>4174831.592521659</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>16</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11692,20 +9958,12 @@
         <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>16</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
-        <v>1.095</v>
-      </c>
-      <c r="M290" t="n">
-        <v>1.006289308176101</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11763,7 +10021,7 @@
         <v>4258200.696521658</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11796,7 +10054,7 @@
         <v>4258200.696521658</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -12456,7 +10714,7 @@
         <v>3854179.330121659</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12489,7 +10747,7 @@
         <v>3678001.546021659</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12522,7 +10780,7 @@
         <v>3732694.289921659</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12555,7 +10813,7 @@
         <v>3312220.129621659</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12654,7 +10912,7 @@
         <v>2718540.418921659</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12687,7 +10945,7 @@
         <v>2690153.087421659</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12720,7 +10978,7 @@
         <v>2690153.087421659</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12753,7 +11011,7 @@
         <v>2737442.469621659</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12786,7 +11044,7 @@
         <v>2737442.469621659</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12819,7 +11077,7 @@
         <v>2737442.469621659</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12852,7 +11110,7 @@
         <v>2744444.969621659</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12885,7 +11143,7 @@
         <v>2744444.969621659</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12918,7 +11176,7 @@
         <v>2899288.924321659</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12951,7 +11209,7 @@
         <v>2899288.924321659</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12984,7 +11242,7 @@
         <v>2689865.018921659</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -13017,7 +11275,7 @@
         <v>2689865.018921659</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -13050,7 +11308,7 @@
         <v>2507599.505721659</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -13083,7 +11341,7 @@
         <v>2507599.505721659</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -13116,7 +11374,7 @@
         <v>2789815.755121659</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -13149,7 +11407,7 @@
         <v>2605917.429621659</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -13182,7 +11440,7 @@
         <v>3456373.801921659</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -13215,7 +11473,7 @@
         <v>3709061.065221659</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -13248,7 +11506,7 @@
         <v>3709061.065221659</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13281,7 +11539,7 @@
         <v>3709061.065221659</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13314,7 +11572,7 @@
         <v>3477622.721921659</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13347,7 +11605,7 @@
         <v>3477641.809121659</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13380,7 +11638,7 @@
         <v>3477641.809121659</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13413,7 +11671,7 @@
         <v>3498425.855321659</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13446,7 +11704,7 @@
         <v>3453249.626321659</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13479,7 +11737,7 @@
         <v>3453249.626321659</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13512,7 +11770,7 @@
         <v>3453249.626321659</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13545,7 +11803,7 @@
         <v>2536343.900221659</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13578,7 +11836,7 @@
         <v>1341394.785446365</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13611,7 +11869,7 @@
         <v>1341394.785446365</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13644,7 +11902,7 @@
         <v>1341394.785446365</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13677,7 +11935,7 @@
         <v>1341394.785446365</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13710,7 +11968,7 @@
         <v>1341394.785446365</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13743,7 +12001,7 @@
         <v>556723.3261463654</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13776,7 +12034,7 @@
         <v>1028611.687046365</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13809,7 +12067,7 @@
         <v>1028611.687046365</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13842,7 +12100,7 @@
         <v>1028611.687046365</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13908,7 +12166,7 @@
         <v>1028611.687046365</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13941,7 +12199,7 @@
         <v>1028611.687046365</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -16779,7 +15037,7 @@
         <v>-1369493.498872198</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -21498,7 +19756,7 @@
         <v>-278257.3499089421</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -21531,7 +19789,7 @@
         <v>-278257.3499089421</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -21564,7 +19822,7 @@
         <v>-278257.3499089421</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21597,7 +19855,7 @@
         <v>-980754.5769089421</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21630,7 +19888,7 @@
         <v>-980754.5769089421</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21663,7 +19921,7 @@
         <v>-780099.906708942</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21696,7 +19954,7 @@
         <v>-780099.906708942</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -21729,7 +19987,7 @@
         <v>-780099.906708942</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -21762,7 +20020,7 @@
         <v>-1034522.860931485</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -21795,7 +20053,7 @@
         <v>-1041453.746731485</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -21828,7 +20086,7 @@
         <v>-1041453.746731485</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -21861,7 +20119,7 @@
         <v>-1041453.746731485</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -21894,7 +20152,7 @@
         <v>-861912.4677314854</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -21927,7 +20185,7 @@
         <v>-861912.4677314854</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -22059,7 +20317,7 @@
         <v>-1043602.512231485</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -23973,7 +22231,7 @@
         <v>-1564849.690203162</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -24237,7 +22495,7 @@
         <v>-1848876.676503162</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -24270,7 +22528,7 @@
         <v>-1848876.676503162</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -24303,7 +22561,7 @@
         <v>-1612178.620103162</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -24336,7 +22594,7 @@
         <v>-1612178.620103162</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -24369,7 +22627,7 @@
         <v>-1953748.485803162</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -24402,7 +22660,7 @@
         <v>-2483288.853903162</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -24435,7 +22693,7 @@
         <v>-2483288.853903162</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -24468,7 +22726,7 @@
         <v>-2361999.228903162</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -24501,7 +22759,7 @@
         <v>-2434383.553203162</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -24534,7 +22792,7 @@
         <v>-2291695.916303162</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -24567,7 +22825,7 @@
         <v>-2373918.731003162</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24600,7 +22858,7 @@
         <v>-2373918.731003162</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -24633,7 +22891,7 @@
         <v>-2373918.731003162</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -24666,7 +22924,7 @@
         <v>-2988979.019703162</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -24699,7 +22957,7 @@
         <v>-4091401.113103162</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -26448,7 +24706,7 @@
         <v>-2150437.56619634</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -26481,7 +24739,7 @@
         <v>-1654913.41179634</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -26514,7 +24772,7 @@
         <v>-1076066.10089634</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -26547,7 +24805,7 @@
         <v>-2212634.39199634</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -26580,7 +24838,7 @@
         <v>-2839108.27969634</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -26613,7 +24871,7 @@
         <v>-2450668.47229634</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26646,7 +24904,7 @@
         <v>-3332514.72639634</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -26679,7 +24937,7 @@
         <v>-3639926.52579634</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -26712,7 +24970,7 @@
         <v>-3162674.56589634</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26745,7 +25003,7 @@
         <v>-3163688.71609634</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -26778,7 +25036,7 @@
         <v>-3118107.28419634</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -26811,7 +25069,7 @@
         <v>-3379474.10189634</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -26844,7 +25102,7 @@
         <v>-3379474.10189634</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -26877,7 +25135,7 @@
         <v>-3379474.10189634</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -26910,7 +25168,7 @@
         <v>-3379474.10189634</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -26943,7 +25201,7 @@
         <v>-3442546.06309634</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -26976,7 +25234,7 @@
         <v>-3273455.52359634</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -27009,7 +25267,7 @@
         <v>-3401663.50809634</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -27042,7 +25300,7 @@
         <v>-3401663.50809634</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -27075,7 +25333,7 @@
         <v>-3401663.50809634</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -27108,7 +25366,7 @@
         <v>-3404083.41809634</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -27141,7 +25399,7 @@
         <v>-3582959.05679634</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -27174,7 +25432,7 @@
         <v>-3125002.35469634</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -27207,7 +25465,7 @@
         <v>-3125002.35469634</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -27240,7 +25498,7 @@
         <v>-3372979.08759634</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -27273,7 +25531,7 @@
         <v>-3372979.08759634</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -27306,7 +25564,7 @@
         <v>-3945734.123982054</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -27339,7 +25597,7 @@
         <v>-3849777.818982054</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -27372,7 +25630,7 @@
         <v>-3849777.818982054</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -27405,7 +25663,7 @@
         <v>-3849767.818982054</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -27438,7 +25696,7 @@
         <v>-6076550.442567768</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -27471,7 +25729,7 @@
         <v>-5523074.864967767</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -27504,7 +25762,7 @@
         <v>-5523062.446967768</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -27537,7 +25795,7 @@
         <v>-5523062.446967768</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -27570,7 +25828,7 @@
         <v>-5557656.843467767</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -27603,7 +25861,7 @@
         <v>-5557656.843467767</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -27636,7 +25894,7 @@
         <v>-5522012.814367767</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -27669,7 +25927,7 @@
         <v>-5571012.814367767</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -27768,7 +26026,7 @@
         <v>-5570866.071567767</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -27801,7 +26059,7 @@
         <v>-5891269.381067768</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -29253,10 +27511,14 @@
         <v>-9201255.408867767</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
-      </c>
-      <c r="I822" t="inlineStr"/>
-      <c r="J822" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I822" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="J822" t="n">
+        <v>16.9</v>
+      </c>
       <c r="K822" t="inlineStr"/>
       <c r="L822" t="n">
         <v>1</v>
@@ -29289,8 +27551,14 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="J823" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -29322,8 +27590,14 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="J824" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -30408,7 +28682,7 @@
         <v>-9974463.008007858</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -30441,7 +28715,7 @@
         <v>-9914438.356907858</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -30474,7 +28748,7 @@
         <v>-10202235.95920786</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -30507,7 +28781,7 @@
         <v>-10236927.69660786</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -30837,7 +29111,7 @@
         <v>-10497524.23977569</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -31134,10 +29408,14 @@
         <v>-10280711.7628757</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
-      </c>
-      <c r="I879" t="inlineStr"/>
-      <c r="J879" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I879" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="J879" t="n">
+        <v>17.1</v>
+      </c>
       <c r="K879" t="inlineStr"/>
       <c r="L879" t="n">
         <v>1</v>
@@ -31167,11 +29445,19 @@
         <v>-10280711.7628757</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
-      </c>
-      <c r="I880" t="inlineStr"/>
-      <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I880" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="J880" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -31200,11 +29486,19 @@
         <v>-10355420.0826757</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
-      </c>
-      <c r="I881" t="inlineStr"/>
-      <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I881" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="J881" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -31233,11 +29527,19 @@
         <v>-10355420.0826757</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
-      </c>
-      <c r="I882" t="inlineStr"/>
-      <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I882" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="J882" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -31266,11 +29568,19 @@
         <v>-10355420.0826757</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
-      </c>
-      <c r="I883" t="inlineStr"/>
-      <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I883" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="J883" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -31299,11 +29609,19 @@
         <v>-10355420.0826757</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
-      </c>
-      <c r="I884" t="inlineStr"/>
-      <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I884" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="J884" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -31332,11 +29650,19 @@
         <v>-10355420.0826757</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
-      </c>
-      <c r="I885" t="inlineStr"/>
-      <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I885" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="J885" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -31365,11 +29691,19 @@
         <v>-10634725.5469757</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
-      <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="J886" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -31398,11 +29732,19 @@
         <v>-10634725.5469757</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
-      </c>
-      <c r="I887" t="inlineStr"/>
-      <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I887" t="n">
+        <v>17</v>
+      </c>
+      <c r="J887" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -31431,11 +29773,19 @@
         <v>-10634725.5469757</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
-      </c>
-      <c r="I888" t="inlineStr"/>
-      <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I888" t="n">
+        <v>17</v>
+      </c>
+      <c r="J888" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -31467,8 +29817,14 @@
         <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="J889" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -31500,8 +29856,14 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="J890" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -31533,8 +29895,14 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="J891" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -31566,8 +29934,14 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="J892" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -31599,8 +29973,14 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="J893" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -31632,8 +30012,14 @@
         <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="J894" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -31665,8 +30051,14 @@
         <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="J895" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -31698,8 +30090,14 @@
         <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="J896" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -31731,8 +30129,14 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="J897" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -31761,11 +30165,19 @@
         <v>-10842612.0422757</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
-      <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="J898" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -31797,8 +30209,14 @@
         <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="J899" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -31827,13 +30245,19 @@
         <v>-10733182.7482757</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="J900" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L900" t="n">
-        <v>1</v>
+        <v>0.9891520467836257</v>
       </c>
       <c r="M900" t="inlineStr"/>
     </row>
@@ -31860,7 +30284,7 @@
         <v>-10733182.7482757</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -31893,10 +30317,14 @@
         <v>-10583182.7482757</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
-      <c r="J902" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I902" t="n">
+        <v>17</v>
+      </c>
+      <c r="J902" t="n">
+        <v>17</v>
+      </c>
       <c r="K902" t="inlineStr"/>
       <c r="L902" t="n">
         <v>1</v>
@@ -31926,11 +30354,19 @@
         <v>-10583182.7482757</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
-      </c>
-      <c r="I903" t="inlineStr"/>
-      <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I903" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="J903" t="n">
+        <v>17</v>
+      </c>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -31959,11 +30395,19 @@
         <v>-10515103.91107569</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
-      </c>
-      <c r="I904" t="inlineStr"/>
-      <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I904" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="J904" t="n">
+        <v>17</v>
+      </c>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -31992,7 +30436,7 @@
         <v>-10515103.91107569</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -32025,10 +30469,14 @@
         <v>-10538459.27632423</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
-      </c>
-      <c r="I906" t="inlineStr"/>
-      <c r="J906" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I906" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="J906" t="n">
+        <v>17.2</v>
+      </c>
       <c r="K906" t="inlineStr"/>
       <c r="L906" t="n">
         <v>1</v>
@@ -32058,11 +30506,19 @@
         <v>-10538459.27632423</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
-      </c>
-      <c r="I907" t="inlineStr"/>
-      <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I907" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="J907" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -32091,11 +30547,19 @@
         <v>-10538459.27632423</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
-      </c>
-      <c r="I908" t="inlineStr"/>
-      <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I908" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="J908" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -32157,10 +30621,14 @@
         <v>-10538449.27632423</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
-      </c>
-      <c r="I910" t="inlineStr"/>
-      <c r="J910" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I910" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="J910" t="n">
+        <v>17.2</v>
+      </c>
       <c r="K910" t="inlineStr"/>
       <c r="L910" t="n">
         <v>1</v>
@@ -32190,11 +30658,19 @@
         <v>-10577617.57507277</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
-      </c>
-      <c r="I911" t="inlineStr"/>
-      <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I911" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="J911" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -32223,11 +30699,19 @@
         <v>-10578468.66227277</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
-      </c>
-      <c r="I912" t="inlineStr"/>
-      <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I912" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="J912" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -32718,17 +31202,23 @@
         <v>-10235291.54190552</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
-      </c>
-      <c r="I927" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I927" t="n">
+        <v>17.1</v>
+      </c>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
       <c r="M927" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest FNB.xlsx
+++ b/BackTest/2019-10-30 BackTest FNB.xlsx
@@ -451,7 +451,7 @@
         <v>16136.75169999998</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>-27754.24330000002</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>16</v>
+      </c>
+      <c r="J3" t="n">
+        <v>16</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>-27696.74330000002</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>16</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>-27696.74330000002</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>16</v>
+      </c>
+      <c r="J5" t="n">
+        <v>16</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -9625,7 +9645,7 @@
         <v>3840363.544521658</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9678,7 @@
         <v>4096014.633521658</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9711,7 @@
         <v>4675254.542721658</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9744,7 @@
         <v>4675254.542721658</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9777,7 @@
         <v>3179030.875321658</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9810,7 @@
         <v>3179030.875321658</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9843,7 @@
         <v>3179030.875321658</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9876,7 @@
         <v>3179030.875321658</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9909,7 @@
         <v>3788918.036921659</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9942,7 @@
         <v>4174831.592521659</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9975,7 @@
         <v>4174831.592521659</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +10008,7 @@
         <v>3976108.062821659</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10041,7 @@
         <v>4258200.696521658</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10074,7 @@
         <v>4258200.696521658</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10107,7 @@
         <v>4258200.696521658</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10140,7 @@
         <v>4015836.488621659</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10173,7 @@
         <v>4234091.108721659</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10206,7 @@
         <v>4234091.108721659</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10239,7 @@
         <v>3593198.726821659</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10272,7 @@
         <v>3534537.008221659</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10305,7 @@
         <v>3602794.496821659</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10338,7 @@
         <v>3602794.496821659</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10371,7 @@
         <v>3602794.496821659</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10404,7 @@
         <v>3602794.496821659</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10437,7 @@
         <v>3602794.496821659</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10470,7 @@
         <v>3602794.496821659</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10503,7 @@
         <v>3259388.997721659</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10536,7 @@
         <v>3742461.785921658</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10569,7 @@
         <v>3735785.917421659</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10602,7 @@
         <v>3854179.330121659</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10635,7 @@
         <v>3854179.330121659</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10668,7 @@
         <v>3854179.330121659</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10701,7 @@
         <v>3854179.330121659</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10734,7 @@
         <v>3854179.330121659</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10767,7 @@
         <v>3678001.546021659</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10800,7 @@
         <v>3732694.289921659</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10833,7 @@
         <v>3312220.129621659</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -15037,7 +15057,7 @@
         <v>-1369493.498872198</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -19756,7 +19776,7 @@
         <v>-278257.3499089421</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19809,7 @@
         <v>-278257.3499089421</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19842,7 @@
         <v>-278257.3499089421</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19875,7 @@
         <v>-980754.5769089421</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19908,7 @@
         <v>-980754.5769089421</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19941,7 @@
         <v>-780099.906708942</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19974,7 @@
         <v>-780099.906708942</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +20007,7 @@
         <v>-780099.906708942</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20040,7 @@
         <v>-1034522.860931485</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20073,7 @@
         <v>-1041453.746731485</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20106,7 @@
         <v>-1041453.746731485</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20139,7 @@
         <v>-1041453.746731485</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20172,7 @@
         <v>-861912.4677314854</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20205,7 @@
         <v>-861912.4677314854</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20317,7 +20337,7 @@
         <v>-1043602.512231485</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -24805,7 +24825,7 @@
         <v>-2212634.39199634</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -24838,7 +24858,7 @@
         <v>-2839108.27969634</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -24871,7 +24891,7 @@
         <v>-2450668.47229634</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -24904,7 +24924,7 @@
         <v>-3332514.72639634</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -24937,7 +24957,7 @@
         <v>-3639926.52579634</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -24970,7 +24990,7 @@
         <v>-3162674.56589634</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25102,7 +25122,7 @@
         <v>-3379474.10189634</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -27511,14 +27531,10 @@
         <v>-9201255.408867767</v>
       </c>
       <c r="H822" t="n">
-        <v>1</v>
-      </c>
-      <c r="I822" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="J822" t="n">
-        <v>16.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I822" t="inlineStr"/>
+      <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr"/>
       <c r="L822" t="n">
         <v>1</v>
@@ -27551,14 +27567,8 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J823" t="inlineStr"/>
+      <c r="K823" t="inlineStr"/>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27590,14 +27600,8 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J824" t="inlineStr"/>
+      <c r="K824" t="inlineStr"/>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -28682,7 +28686,7 @@
         <v>-9974463.008007858</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -28715,7 +28719,7 @@
         <v>-9914438.356907858</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -28748,7 +28752,7 @@
         <v>-10202235.95920786</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -28781,7 +28785,7 @@
         <v>-10236927.69660786</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -28979,11 +28983,17 @@
         <v>-10497524.23977569</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
-      </c>
-      <c r="I866" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I866" t="n">
+        <v>16.9</v>
+      </c>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29012,11 +29022,17 @@
         <v>-10497524.23977569</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I867" t="n">
+        <v>17</v>
+      </c>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29045,11 +29061,17 @@
         <v>-10497524.23977569</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I868" t="n">
+        <v>17</v>
+      </c>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29078,11 +29100,17 @@
         <v>-10497524.23977569</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I869" t="n">
+        <v>17</v>
+      </c>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29111,11 +29139,15 @@
         <v>-10497524.23977569</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29144,11 +29176,17 @@
         <v>-10498724.23977569</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
-      </c>
-      <c r="I871" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I871" t="n">
+        <v>17</v>
+      </c>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29177,11 +29215,17 @@
         <v>-10460929.0574757</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
-      </c>
-      <c r="I872" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I872" t="n">
+        <v>16.9</v>
+      </c>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29210,11 +29254,17 @@
         <v>-10460929.0574757</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
-      </c>
-      <c r="I873" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I873" t="n">
+        <v>17</v>
+      </c>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29243,11 +29293,17 @@
         <v>-10460929.0574757</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
-      </c>
-      <c r="I874" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I874" t="n">
+        <v>17</v>
+      </c>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29276,11 +29332,17 @@
         <v>-10460929.0574757</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
-      </c>
-      <c r="I875" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I875" t="n">
+        <v>17</v>
+      </c>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29309,11 +29371,17 @@
         <v>-10383009.3499757</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
-      </c>
-      <c r="I876" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I876" t="n">
+        <v>17</v>
+      </c>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29342,11 +29410,17 @@
         <v>-10383009.3499757</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
-      </c>
-      <c r="I877" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I877" t="n">
+        <v>17.1</v>
+      </c>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29375,11 +29449,17 @@
         <v>-10383009.3499757</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
-      </c>
-      <c r="I878" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I878" t="n">
+        <v>17.1</v>
+      </c>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29413,10 +29493,12 @@
       <c r="I879" t="n">
         <v>17.1</v>
       </c>
-      <c r="J879" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="K879" t="inlineStr"/>
+      <c r="J879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -29445,17 +29527,13 @@
         <v>-10280711.7628757</v>
       </c>
       <c r="H880" t="n">
-        <v>1</v>
-      </c>
-      <c r="I880" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="J880" t="n">
-        <v>17.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I880" t="inlineStr"/>
+      <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L880" t="n">
@@ -29491,12 +29569,10 @@
       <c r="I881" t="n">
         <v>17.2</v>
       </c>
-      <c r="J881" t="n">
-        <v>17.1</v>
-      </c>
+      <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L881" t="n">
@@ -29527,14 +29603,10 @@
         <v>-10355420.0826757</v>
       </c>
       <c r="H882" t="n">
-        <v>1</v>
-      </c>
-      <c r="I882" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="J882" t="n">
-        <v>17.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I882" t="inlineStr"/>
+      <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29573,9 +29645,7 @@
       <c r="I883" t="n">
         <v>17.1</v>
       </c>
-      <c r="J883" t="n">
-        <v>17.1</v>
-      </c>
+      <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29614,9 +29684,7 @@
       <c r="I884" t="n">
         <v>17.1</v>
       </c>
-      <c r="J884" t="n">
-        <v>17.1</v>
-      </c>
+      <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29655,9 +29723,7 @@
       <c r="I885" t="n">
         <v>17.1</v>
       </c>
-      <c r="J885" t="n">
-        <v>17.1</v>
-      </c>
+      <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29696,9 +29762,7 @@
       <c r="I886" t="n">
         <v>17.1</v>
       </c>
-      <c r="J886" t="n">
-        <v>17.1</v>
-      </c>
+      <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29737,9 +29801,7 @@
       <c r="I887" t="n">
         <v>17</v>
       </c>
-      <c r="J887" t="n">
-        <v>17.1</v>
-      </c>
+      <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29778,9 +29840,7 @@
       <c r="I888" t="n">
         <v>17</v>
       </c>
-      <c r="J888" t="n">
-        <v>17.1</v>
-      </c>
+      <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29814,12 +29874,12 @@
         <v>-10830432.3314757</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
-      </c>
-      <c r="I889" t="inlineStr"/>
-      <c r="J889" t="n">
-        <v>17.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I889" t="n">
+        <v>17</v>
+      </c>
+      <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29853,12 +29913,12 @@
         <v>-10825921.9869757</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
-      </c>
-      <c r="I890" t="inlineStr"/>
-      <c r="J890" t="n">
-        <v>17.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I890" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29892,12 +29952,12 @@
         <v>-10825921.9869757</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
-      </c>
-      <c r="I891" t="inlineStr"/>
-      <c r="J891" t="n">
-        <v>17.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I891" t="n">
+        <v>17</v>
+      </c>
+      <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29931,12 +29991,12 @@
         <v>-10799250.5717757</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
-      </c>
-      <c r="I892" t="inlineStr"/>
-      <c r="J892" t="n">
-        <v>17.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I892" t="n">
+        <v>17</v>
+      </c>
+      <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29970,12 +30030,12 @@
         <v>-10836559.2187757</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
-      </c>
-      <c r="I893" t="inlineStr"/>
-      <c r="J893" t="n">
-        <v>17.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I893" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30009,12 +30069,12 @@
         <v>-10836559.2187757</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
-      </c>
-      <c r="I894" t="inlineStr"/>
-      <c r="J894" t="n">
-        <v>17.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I894" t="n">
+        <v>17</v>
+      </c>
+      <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30048,12 +30108,12 @@
         <v>-10836559.2187757</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
-      </c>
-      <c r="I895" t="inlineStr"/>
-      <c r="J895" t="n">
-        <v>17.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I895" t="n">
+        <v>17</v>
+      </c>
+      <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30087,12 +30147,12 @@
         <v>-10842612.0422757</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
-      </c>
-      <c r="I896" t="inlineStr"/>
-      <c r="J896" t="n">
-        <v>17.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I896" t="n">
+        <v>17</v>
+      </c>
+      <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30126,12 +30186,12 @@
         <v>-10842612.0422757</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
-      <c r="J897" t="n">
-        <v>17.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I897" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30170,9 +30230,7 @@
       <c r="I898" t="n">
         <v>16.9</v>
       </c>
-      <c r="J898" t="n">
-        <v>17.1</v>
-      </c>
+      <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30206,12 +30264,12 @@
         <v>-10842612.0422757</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
-      </c>
-      <c r="I899" t="inlineStr"/>
-      <c r="J899" t="n">
-        <v>17.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I899" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30245,19 +30303,19 @@
         <v>-10733182.7482757</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
-      </c>
-      <c r="I900" t="inlineStr"/>
-      <c r="J900" t="n">
-        <v>17.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I900" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L900" t="n">
-        <v>0.9891520467836257</v>
+        <v>1</v>
       </c>
       <c r="M900" t="inlineStr"/>
     </row>
@@ -30284,11 +30342,17 @@
         <v>-10733182.7482757</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
-      </c>
-      <c r="I901" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I901" t="n">
+        <v>17</v>
+      </c>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30322,10 +30386,12 @@
       <c r="I902" t="n">
         <v>17</v>
       </c>
-      <c r="J902" t="n">
-        <v>17</v>
-      </c>
-      <c r="K902" t="inlineStr"/>
+      <c r="J902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30359,12 +30425,10 @@
       <c r="I903" t="n">
         <v>17.1</v>
       </c>
-      <c r="J903" t="n">
-        <v>17</v>
-      </c>
+      <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L903" t="n">
@@ -30400,12 +30464,10 @@
       <c r="I904" t="n">
         <v>17.1</v>
       </c>
-      <c r="J904" t="n">
-        <v>17</v>
-      </c>
+      <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L904" t="n">
@@ -30436,11 +30498,17 @@
         <v>-10515103.91107569</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
-      </c>
-      <c r="I905" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I905" t="n">
+        <v>17.2</v>
+      </c>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30474,10 +30542,12 @@
       <c r="I906" t="n">
         <v>17.2</v>
       </c>
-      <c r="J906" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="K906" t="inlineStr"/>
+      <c r="J906" t="inlineStr"/>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30511,12 +30581,10 @@
       <c r="I907" t="n">
         <v>17.1</v>
       </c>
-      <c r="J907" t="n">
-        <v>17.2</v>
-      </c>
+      <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L907" t="n">
@@ -30552,12 +30620,10 @@
       <c r="I908" t="n">
         <v>17.1</v>
       </c>
-      <c r="J908" t="n">
-        <v>17.2</v>
-      </c>
+      <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L908" t="n">
@@ -30588,11 +30654,17 @@
         <v>-10538449.27632423</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
-      </c>
-      <c r="I909" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I909" t="n">
+        <v>17.1</v>
+      </c>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -30626,10 +30698,12 @@
       <c r="I910" t="n">
         <v>17.2</v>
       </c>
-      <c r="J910" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="K910" t="inlineStr"/>
+      <c r="J910" t="inlineStr"/>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -30663,12 +30737,10 @@
       <c r="I911" t="n">
         <v>17.2</v>
       </c>
-      <c r="J911" t="n">
-        <v>17.2</v>
-      </c>
+      <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L911" t="n">
@@ -30704,12 +30776,10 @@
       <c r="I912" t="n">
         <v>17.1</v>
       </c>
-      <c r="J912" t="n">
-        <v>17.2</v>
-      </c>
+      <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L912" t="n">
@@ -30740,11 +30810,17 @@
         <v>-10578458.66227277</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
-      </c>
-      <c r="I913" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I913" t="n">
+        <v>17</v>
+      </c>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -30773,11 +30849,17 @@
         <v>-10628458.66227277</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
-      </c>
-      <c r="I914" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I914" t="n">
+        <v>17.1</v>
+      </c>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -30806,11 +30888,17 @@
         <v>-10628458.66227277</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
-      </c>
-      <c r="I915" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I915" t="n">
+        <v>17</v>
+      </c>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -30839,11 +30927,17 @@
         <v>-10503468.99447277</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
-      </c>
-      <c r="I916" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I916" t="n">
+        <v>17</v>
+      </c>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -30872,11 +30966,17 @@
         <v>-10106596.56317277</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
-      </c>
-      <c r="I917" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I917" t="n">
+        <v>17.2</v>
+      </c>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -30905,11 +31005,17 @@
         <v>-10106596.56317277</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
-      </c>
-      <c r="I918" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I918" t="n">
+        <v>17.3</v>
+      </c>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -30938,11 +31044,17 @@
         <v>-10156616.18117277</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
-      </c>
-      <c r="I919" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I919" t="n">
+        <v>17.3</v>
+      </c>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -30971,11 +31083,17 @@
         <v>-10177601.21007277</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
-      </c>
-      <c r="I920" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I920" t="n">
+        <v>17.2</v>
+      </c>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -31004,11 +31122,17 @@
         <v>-10169389.62737277</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
-      </c>
-      <c r="I921" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I921" t="n">
+        <v>17.1</v>
+      </c>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -31037,11 +31161,17 @@
         <v>-10169389.62737277</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
-      </c>
-      <c r="I922" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I922" t="n">
+        <v>17.2</v>
+      </c>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -31070,11 +31200,17 @@
         <v>-10214615.81710552</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
-      </c>
-      <c r="I923" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I923" t="n">
+        <v>17.2</v>
+      </c>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -31103,11 +31239,17 @@
         <v>-10235411.42490552</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
-      </c>
-      <c r="I924" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I924" t="n">
+        <v>17.1</v>
+      </c>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -31136,11 +31278,17 @@
         <v>-10235411.42490552</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
-      </c>
-      <c r="I925" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I925" t="n">
+        <v>17</v>
+      </c>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -31169,11 +31317,17 @@
         <v>-10235291.54190552</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
-      </c>
-      <c r="I926" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I926" t="n">
+        <v>17</v>
+      </c>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -31210,7 +31364,7 @@
       <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L927" t="n">
